--- a/test/newopenpyxl.xlsx
+++ b/test/newopenpyxl.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="2C7EE24B-C535-494D-AA97-0A61EE84BA40">
   <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" x14ac:dyDescent="0.25" spans="1:1">
